--- a/Training_Plan_ForKhoiPham.xlsx
+++ b/Training_Plan_ForKhoiPham.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="Status">Matlab_Simulink!$Y$5:$Y$9</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -206,14 +206,6 @@
 </t>
   </si>
   <si>
-    <t>- Software Verification
-- Basic Concept of Code Coverage
-- Model Coverage Verification
-- Tool Introduction for Model Coverage
-- Test Case Creation for Model Coverage Verification
-- Basic Model Verification Result Analysis</t>
-  </si>
-  <si>
     <t>A_intro</t>
   </si>
   <si>
@@ -268,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -535,116 +527,116 @@
     <xf numFmtId="18" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,7 +952,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,12 +1021,12 @@
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="50"/>
+        <v>61</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="31"/>
       <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1049,30 +1041,30 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+      <c r="B6" s="28">
         <f t="shared" ref="B6" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="8">
         <v>3.5</v>
@@ -1090,27 +1082,27 @@
         <v>43160</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="34">
+      <c r="P6" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="48">
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="8">
         <v>4.5</v>
@@ -1128,34 +1120,34 @@
         <v>43160</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="35"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53">
+      <c r="B8" s="34">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="36" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="13">
         <v>3.5</v>
@@ -1173,27 +1165,27 @@
         <v>43161</v>
       </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="36">
+      <c r="P8" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="50">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="13">
         <v>12.5</v>
@@ -1211,34 +1203,34 @@
         <v>43161</v>
       </c>
       <c r="O9" s="14"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="37"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29">
+      <c r="B10" s="43">
         <f>B8+1</f>
         <v>3</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="8">
         <v>3.5</v>
@@ -1256,27 +1248,27 @@
         <v>43164</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="34">
+      <c r="P10" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="48">
         <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="8">
         <v>4.5</v>
@@ -1294,34 +1286,32 @@
         <v>43164</v>
       </c>
       <c r="O11" s="9"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="35"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="49"/>
     </row>
     <row r="12" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="51">
+      <c r="B12" s="32">
         <f t="shared" ref="B12" si="1">B10+1</f>
         <v>4</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>49</v>
-      </c>
+      <c r="F12" s="36"/>
       <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="13">
         <v>3.5</v>
@@ -1339,27 +1329,27 @@
         <v>43165</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="36">
+      <c r="P12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="50">
         <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="13">
         <v>12.5</v>
@@ -1377,8 +1367,8 @@
         <v>43165</v>
       </c>
       <c r="O13" s="14"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="37"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
@@ -1401,10 +1391,10 @@
         <v>14</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="8">
         <v>20.5</v>
@@ -1430,30 +1420,30 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="59">
+      <c r="A15" s="62"/>
+      <c r="B15" s="60">
         <v>6</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="58" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>66</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="21">
         <v>3.5</v>
@@ -1473,20 +1463,20 @@
       <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="21">
         <v>12.5</v>
@@ -1506,16 +1496,16 @@
       <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="2:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="61">
+      <c r="B17" s="26">
         <v>7</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="57" t="s">
+      <c r="C17" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1525,10 +1515,10 @@
         <v>25</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="8">
         <v>24</v>
@@ -1550,10 +1540,10 @@
       <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="2:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
@@ -1561,10 +1551,10 @@
         <v>25</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="8">
         <v>16</v>
@@ -1586,10 +1576,10 @@
       <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="2:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1587,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>7</v>
@@ -1620,10 +1610,10 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1631,7 +1621,7 @@
         <v>30</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>7</v>
@@ -1654,10 +1644,10 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="2:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="9" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1655,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>7</v>
@@ -1688,18 +1678,18 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>7</v>
@@ -1723,6 +1713,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P13"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="L5:M5"/>
@@ -1739,29 +1752,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22">
